--- a/code/s3d/document/design/API-record-access.xlsx
+++ b/code/s3d/document/design/API-record-access.xlsx
@@ -57,14 +57,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t>{
-    "1": "</t>
+   [ {"1": "</t>
     </r>
     <r>
       <rPr>
@@ -118,8 +112,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "2": "</t>
+      <t>"},
+    {"2": "</t>
     </r>
     <r>
       <rPr>
@@ -137,8 +131,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "3": "</t>
+      <t>"},
+    {"3": "</t>
     </r>
     <r>
       <rPr>
@@ -156,8 +150,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "4": "</t>
+      <t>"},
+    {"4": "</t>
     </r>
     <r>
       <rPr>
@@ -166,7 +160,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>责任医师</t>
+      <t>责任护士</t>
     </r>
     <r>
       <rPr>
@@ -175,8 +169,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "5": "</t>
+      <t>"},
+    {"5": "</t>
     </r>
     <r>
       <rPr>
@@ -194,8 +188,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "6": "</t>
+      <t>"},
+    {"6": "</t>
     </r>
     <r>
       <rPr>
@@ -213,8 +207,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "7": "</t>
+      <t>"},
+    {"7": "</t>
     </r>
     <r>
       <rPr>
@@ -232,8 +226,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "8": "</t>
+      <t>"},
+    {"8": "</t>
     </r>
     <r>
       <rPr>
@@ -251,8 +245,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "9": "</t>
+      <t>}",
+    {"9": "</t>
     </r>
     <r>
       <rPr>
@@ -270,8 +264,54 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>"
-}</t>
+      <t xml:space="preserve">"}]
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注意这个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>code, value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是后台映射</t>
     </r>
   </si>
   <si>
@@ -282,14 +322,8 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{
-    "1": "</t>
+      <t>{[
+    {"1": "</t>
     </r>
     <r>
       <rPr>
@@ -307,8 +341,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "2": "</t>
+      <t>"},
+    {"2": "</t>
     </r>
     <r>
       <rPr>
@@ -326,8 +360,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "3": "</t>
+      <t>"},
+    {"3": "</t>
     </r>
     <r>
       <rPr>
@@ -345,8 +379,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "4": "</t>
+      <t>"},
+    {"4": "</t>
     </r>
     <r>
       <rPr>
@@ -364,8 +398,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "5": "</t>
+      <t>"},
+    {"5": "</t>
     </r>
     <r>
       <rPr>
@@ -383,8 +417,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "6": "</t>
+      <t>"},
+    {"6": "</t>
     </r>
     <r>
       <rPr>
@@ -402,8 +436,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "7": "</t>
+      <t>"},
+    {"7": "</t>
     </r>
     <r>
       <rPr>
@@ -421,8 +455,8 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>",
-    "8": "</t>
+      <t>"},
+    {"8": "</t>
     </r>
     <r>
       <rPr>
@@ -441,7 +475,7 @@
         <charset val="134"/>
       </rPr>
       <t>",
-    "9": "</t>
+    {"9": "</t>
     </r>
     <r>
       <rPr>
@@ -460,11 +494,17 @@
         <charset val="134"/>
       </rPr>
       <t>"
-}</t>
+]}</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">add record access configuration.
 </t>
     </r>
@@ -540,6 +580,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
  "id":,   
  "authObjType": 1,
@@ -589,6 +635,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">id </t>
     </r>
     <r>
@@ -977,6 +1029,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">delete </t>
     </r>
     <r>
@@ -1003,6 +1061,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>{
  "id":123456,   
  "authObjType": 1,
@@ -1063,9 +1127,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1144,8 +1208,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1160,6 +1233,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1167,30 +1254,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1204,15 +1268,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1234,32 +1307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1273,9 +1323,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,7 +1372,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,31 +1408,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1356,7 +1438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,13 +1474,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,43 +1504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,19 +1528,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,19 +1540,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,6 +1601,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1555,8 +1628,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,35 +1664,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1623,17 +1698,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -1642,10 +1706,10 @@
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1654,133 +1718,133 @@
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2259,7 +2323,7 @@
   <dimension ref="A1:XFA8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="10.5" outlineLevelRow="7"/>
